--- a/Floor_5/Left_wing.xlsx
+++ b/Floor_5/Left_wing.xlsx
@@ -505,7 +505,7 @@
           <t>1.10</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -513,7 +513,7 @@
           <t>2.10</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -521,7 +521,7 @@
           <t>3.10</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -529,7 +529,7 @@
           <t>4.10</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n"/>
+      <c r="H5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -537,7 +537,7 @@
           <t>5.10</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -545,7 +545,7 @@
           <t>6.10</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -553,7 +553,7 @@
           <t>7.10</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -561,7 +561,7 @@
           <t>8.10</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -569,7 +569,7 @@
           <t>9.10</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -577,7 +577,7 @@
           <t>10.10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n"/>
+      <c r="N11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -585,7 +585,7 @@
           <t>11.10</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n"/>
+      <c r="O12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -601,7 +601,7 @@
           <t>13.10</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -609,7 +609,7 @@
           <t>14.10</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -617,7 +617,7 @@
           <t>15.10</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -625,7 +625,7 @@
           <t>16.10</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -633,7 +633,7 @@
           <t>17.10</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -641,7 +641,7 @@
           <t>18.10</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -649,7 +649,7 @@
           <t>19.10</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -657,7 +657,7 @@
           <t>20.10</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n"/>
+      <c r="J21" s="1" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -665,7 +665,7 @@
           <t>21.10</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n"/>
+      <c r="K22" s="1" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -673,7 +673,7 @@
           <t>22.10</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n"/>
+      <c r="L23" s="1" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -681,7 +681,7 @@
           <t>23.10</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n"/>
+      <c r="M24" s="1" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -689,7 +689,7 @@
           <t>24.10</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n"/>
+      <c r="N25" s="1" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -697,7 +697,7 @@
           <t>25.10</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n"/>
+      <c r="O26" s="1" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -713,7 +713,7 @@
           <t>27.10</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -721,7 +721,7 @@
           <t>28.10</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -729,7 +729,7 @@
           <t>29.10</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -737,7 +737,7 @@
           <t>30.10</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -745,7 +745,7 @@
           <t>31.10</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
